--- a/MirelaCvetkova/lesson5/Test Case Homework.xlsx
+++ b/MirelaCvetkova/lesson5/Test Case Homework.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirela\Desktop\SKILLO\lecture2\GIT\softwaretesting1008\MirelaCvetkova\lesson5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirela\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Test case template" sheetId="1" r:id="rId1"/>
+    <sheet name="Reported bugs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -140,13 +141,180 @@
   </si>
   <si>
     <t>Send a message on "Web master" as not registered user</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Open Home page.</t>
+  </si>
+  <si>
+    <t>2.Click "Sign in" button.</t>
+  </si>
+  <si>
+    <t>"CREATE AN ACCOUNT" and "ALREADY REGISTERED?" forms appears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "There is 1 error. 1.Invalid email address" message appears.</t>
+  </si>
+  <si>
+    <t>Loggin with not registered email adrress</t>
+  </si>
+  <si>
+    <t>3.In "ALREADY REGISTERED?" write not registered email address, password and press "Sing in" button.</t>
+  </si>
+  <si>
+    <t>"There is 1 error. 1. Invalid password" message appears.</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Create an account</t>
+  </si>
+  <si>
+    <t>email: mira1929@abv.bg</t>
+  </si>
+  <si>
+    <t>23.10.2018</t>
+  </si>
+  <si>
+    <t>Not registered email address</t>
+  </si>
+  <si>
+    <t>3.Click "Create un account" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Create an account with an empty email address field</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful create an account </t>
+  </si>
+  <si>
+    <t>Valid email address</t>
+  </si>
+  <si>
+    <t>Email address: mira1929@abv.bg</t>
+  </si>
+  <si>
+    <t>27.10.2018</t>
+  </si>
+  <si>
+    <t>"CREATE AN ACCOUNT" a form appears.</t>
+  </si>
+  <si>
+    <t>3.Enter email address: mira1929@abv.bg and press "Create un account" button.</t>
+  </si>
+  <si>
+    <t>4.Enter First name: Mirela</t>
+  </si>
+  <si>
+    <t>5.Enter Last name: Cvetkova</t>
+  </si>
+  <si>
+    <t>6.Enter email: mira1929@abv.bg</t>
+  </si>
+  <si>
+    <t>7.Enter password: mira1929</t>
+  </si>
+  <si>
+    <t>8.In "Your address" enter the same First name and Last name</t>
+  </si>
+  <si>
+    <t>10.Enter City: Sofia</t>
+  </si>
+  <si>
+    <t>When filled in correctly, it becomes green.</t>
+  </si>
+  <si>
+    <t>12.Enret Country: Bulgaria</t>
+  </si>
+  <si>
+    <t>13.Enter valid mobile phone: 0891234564</t>
+  </si>
+  <si>
+    <t>11.Enter Postal code: 1784</t>
+  </si>
+  <si>
+    <t>15.Click "Register" button.</t>
+  </si>
+  <si>
+    <t>The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
+  </si>
+  <si>
+    <t>This country requires you to choose a State.</t>
+  </si>
+  <si>
+    <t>"1.Invalid email address." a red message appears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There are 2 errors.The Zip/Postal code you've entered is invalid. It must follow this format: 00000.This country requires you to choose a State" a red message appears.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When email address is valid, a field becomes green, before press "Create an account" and "Your personal information" appears.</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Create an account without first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful create an account without first name </t>
+  </si>
+  <si>
+    <t>email address: mira1929@abv.bg</t>
+  </si>
+  <si>
+    <t>4. First name field is empty</t>
+  </si>
+  <si>
+    <t>12.Enrer Country: Bulgaria</t>
+  </si>
+  <si>
+    <t>9.Enter Address: Street "Ivan Vazov" 1, 12, Company 1</t>
+  </si>
+  <si>
+    <t>14.Enter "Assign an address alias for future reference": Mladost</t>
+  </si>
+  <si>
+    <t>"There are 4 errors.1.firstname is required. 2.id_country is required. 3.Country cannot be loaded with address-&gt;id_country 4.Country is invalid" a red message appears.</t>
+  </si>
+  <si>
+    <t>8.In "Your address" enter First name: Mirela and Last name: Cvetkova</t>
+  </si>
+  <si>
+    <t>3.Enter email address: mira1929@abv.bg and press "Create an account" button.</t>
+  </si>
+  <si>
+    <t>11.The field "State" is blank</t>
+  </si>
+  <si>
+    <t>FirstName, Lastname accept whitespace and special symbols.</t>
+  </si>
+  <si>
+    <t>Email address doesn't accept a@a format which is a valid in some email providers.</t>
+  </si>
+  <si>
+    <t>Phone number error is displayed under incorrect input field.</t>
+  </si>
+  <si>
+    <t>Always showed errors for phone and address.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +338,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -296,11 +507,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -324,6 +559,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -348,6 +660,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,13 +1182,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
     <col min="2" max="2" width="80.5546875" bestFit="1" customWidth="1"/>
@@ -874,21 +1196,21 @@
     <col min="4" max="4" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -912,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -920,19 +1242,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -940,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,13 +1270,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,7 +1284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -970,25 +1292,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A18" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="41"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1004,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1020,19 +1342,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,13 +1370,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="39"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -1078,29 +1400,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="36" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A36" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1132,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1140,13 +1462,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,13 +1484,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="39"/>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="28.8">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1184,7 +1506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="28.8">
       <c r="A51" s="4" t="s">
         <v>27</v>
       </c>
@@ -1200,37 +1522,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="28.8">
       <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="28.8">
       <c r="A53" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" customHeight="1"/>
+    <row r="56" spans="1:2" ht="14.4" customHeight="1"/>
+    <row r="57" spans="1:2">
+      <c r="A57" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="41"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -1270,13 +1592,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,13 +1614,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="39"/>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="28.8">
       <c r="A70" s="3" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="28.8">
       <c r="A72" s="4" t="s">
         <v>37</v>
       </c>
@@ -1330,13 +1652,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.4" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="28.8">
       <c r="A74" s="8" t="s">
         <v>29</v>
       </c>
@@ -1344,19 +1666,720 @@
         <v>30</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="48"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="46"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8">
+      <c r="A91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.2">
+      <c r="A93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="48"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16.8" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="49"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="28.8">
+      <c r="A110" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:3" ht="14.4" customHeight="1"/>
+    <row r="115" spans="1:3" ht="14.4" hidden="1" customHeight="1"/>
+    <row r="117" spans="1:3">
+      <c r="A117" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="48"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="48"/>
+      <c r="B118" s="48"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="21">
+      <c r="A128" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="46"/>
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="28.8">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="22"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="28.8">
+      <c r="A132" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="24"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="28.8">
+      <c r="A137" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="20"/>
+    </row>
+    <row r="138" spans="1:4" ht="28.8">
+      <c r="A138" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="20"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="20"/>
+    </row>
+    <row r="140" spans="1:4" s="13" customFormat="1">
+      <c r="A140" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B140" s="20"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" s="20"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="20"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" s="20"/>
+    </row>
+    <row r="144" spans="1:4" ht="28.8">
+      <c r="A144" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="1:2" ht="43.2">
+      <c r="A145" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="B147" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="37"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="37"/>
+      <c r="B150" s="37"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="37"/>
+      <c r="B151" s="37"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="26"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="35"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8">
+      <c r="A162" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.8">
+      <c r="A164" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="27"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="28.8">
+      <c r="A169" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B169" s="27"/>
+    </row>
+    <row r="170" spans="1:2" ht="28.8">
+      <c r="A170" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B170" s="27"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="27"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="27"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B173" s="27"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" s="27"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B175" s="27"/>
+    </row>
+    <row r="176" spans="1:2" ht="28.8">
+      <c r="A176" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B176" s="31"/>
+    </row>
+    <row r="177" spans="1:2" ht="28.8">
+      <c r="A177" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A57:B59"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A18:B20"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A36:B38"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A117:B119"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A57:B59"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B80"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A97:B99"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A149:B151"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MirelaCvetkova/lesson5/Test Case Homework.xlsx
+++ b/MirelaCvetkova/lesson5/Test Case Homework.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirela\Desktop\SKILLO\lecture2\GIT\softwaretesting1008\MirelaCvetkova\lesson5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -274,9 +274,6 @@
     <t>email address: mira1929@abv.bg</t>
   </si>
   <si>
-    <t>4. First name field is empty</t>
-  </si>
-  <si>
     <t>12.Enrer Country: Bulgaria</t>
   </si>
   <si>
@@ -308,13 +305,16 @@
   </si>
   <si>
     <t>Always showed errors for phone and address.</t>
+  </si>
+  <si>
+    <t>4. First name field leave empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +375,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -535,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,6 +634,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -636,40 +677,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1197,18 +1207,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1271,10 +1281,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
@@ -1297,18 +1307,18 @@
       <c r="B15" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
@@ -1371,10 +1381,10 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
@@ -1409,18 +1419,18 @@
       <c r="B34" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
@@ -1485,10 +1495,10 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="42"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
@@ -1539,18 +1549,18 @@
     <row r="54" spans="1:2" ht="14.4" customHeight="1"/>
     <row r="56" spans="1:2" ht="14.4" customHeight="1"/>
     <row r="57" spans="1:2">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="41"/>
+      <c r="B57" s="36"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
@@ -1615,10 +1625,10 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="39"/>
+      <c r="B68" s="42"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
@@ -1667,18 +1677,18 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="45"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="48"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
@@ -1741,10 +1751,10 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="46"/>
+      <c r="B89" s="43"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
@@ -1783,18 +1793,18 @@
       <c r="B94" s="4"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="48"/>
+      <c r="B97" s="45"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
@@ -1861,10 +1871,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="49"/>
+      <c r="B108" s="46"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9" t="s">
@@ -1905,18 +1915,18 @@
     <row r="114" spans="1:3" ht="14.4" customHeight="1"/>
     <row r="115" spans="1:3" ht="14.4" hidden="1" customHeight="1"/>
     <row r="117" spans="1:3">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="48"/>
+      <c r="B117" s="45"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="48"/>
-      <c r="B118" s="48"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="48"/>
-      <c r="B119" s="48"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
@@ -1983,10 +1993,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="46"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:4">
@@ -2016,7 +2026,7 @@
     </row>
     <row r="132" spans="1:4" ht="28.8">
       <c r="A132" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>78</v>
@@ -2063,7 +2073,7 @@
     </row>
     <row r="138" spans="1:4" ht="28.8">
       <c r="A138" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B138" s="20"/>
     </row>
@@ -2075,7 +2085,7 @@
     </row>
     <row r="140" spans="1:4" s="13" customFormat="1">
       <c r="A140" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B140" s="20"/>
     </row>
@@ -2087,7 +2097,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B142" s="20"/>
     </row>
@@ -2099,7 +2109,7 @@
     </row>
     <row r="144" spans="1:4" ht="28.8">
       <c r="A144" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="7"/>
     </row>
@@ -2122,18 +2132,18 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="36" t="s">
+      <c r="A149" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="37"/>
+      <c r="B149" s="49"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="37"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="49"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="37"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="49"/>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="25" t="s">
@@ -2198,10 +2208,10 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B160" s="35"/>
+      <c r="B160" s="47"/>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="25" t="s">
@@ -2236,8 +2246,8 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="23" t="s">
-        <v>83</v>
+      <c r="A165" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="B165" s="27"/>
     </row>
@@ -2267,13 +2277,13 @@
     </row>
     <row r="169" spans="1:2" ht="28.8">
       <c r="A169" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B169" s="27"/>
     </row>
     <row r="170" spans="1:2" ht="28.8">
       <c r="A170" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B170" s="27"/>
     </row>
@@ -2285,7 +2295,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B172" s="27"/>
     </row>
@@ -2309,7 +2319,7 @@
     </row>
     <row r="176" spans="1:2" ht="28.8">
       <c r="A176" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B176" s="31"/>
     </row>
@@ -2318,11 +2328,14 @@
         <v>73</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A149:B151"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A18:B20"/>
     <mergeCell ref="A29:B29"/>
@@ -2336,9 +2349,6 @@
     <mergeCell ref="A78:B80"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A97:B99"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A149:B151"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2361,22 +2371,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
